--- a/medicine/Premiers secours et secourisme/Brigade_de_sapeurs-pompiers_de_Paris/Brigade_de_sapeurs-pompiers_de_Paris.xlsx
+++ b/medicine/Premiers secours et secourisme/Brigade_de_sapeurs-pompiers_de_Paris/Brigade_de_sapeurs-pompiers_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La brigade de sapeurs-pompiers de Paris (BSPP), familièrement appelée la Brigade, est une unité du génie de l'Armée de terre française, placée sous l'autorité du préfet de police de Paris. Elle est commandée par le général de division[2] Joseph Dupré La Tour depuis le 1er août 2022[3].
+La brigade de sapeurs-pompiers de Paris (BSPP), familièrement appelée la Brigade, est une unité du génie de l'Armée de terre française, placée sous l'autorité du préfet de police de Paris. Elle est commandée par le général de division Joseph Dupré La Tour depuis le 1er août 2022.
 Cette brigade, au statut militaire mais aussi civile intervient sur le territoire de l'agglomération parisienne, dans Paris et ses trois départements limitrophes (« petite couronne ») : Hauts-de-Seine, Seine-Saint-Denis, Val-de-Marne. Elle assure également la protection de la base spatiale de Kourou, en Guyane française, et de la base d'essais de missiles de la DGA, à Biscarrosse.
-La devise de la BSPP est : « Sauver ou Périr ». La BSPP comprenait 8 550 sapeurs-pompiers en 2021[4], dont un peu plus de 300 officiers, environ 1 500 sous-officiers, le reste étant composé de militaires du rang, soit environ 119 pompiers pour 100 000 habitants. La moyenne nationale est de 382 pompiers pour 10 000 009 habitants, mais la zone couverte par la BSPP est très petite et permet donc des temps d'interventions courts avec un effectif réduit : on compte 9,2 pompiers par km2 dans la zone BSPP, contre 0,34 en moyenne en France.
-Le budget annuel de fonctionnement était de 323,7 millions d'euros en 2012[4], dont 78,2 % de soldes (rémunération et cotisations sociales), 10,5 % de matériel, 8,8 % d'investissement immobilier et 2,5 % de loyers et charges. Les contributeurs à ce budget sont les départements (29 %), la ville de Paris (26 %), le ministère de l'Intérieur (24 %) et les autres communes (21 %)[réf. nécessaire].
-La BSPP est régie actuellement par les articles R.3222-13 à R.3222-18[5] du code de la Défense. Elle remplit approximativement le même rôle que les SDIS dans les autres départements français.
+La devise de la BSPP est : « Sauver ou Périr ». La BSPP comprenait 8 550 sapeurs-pompiers en 2021, dont un peu plus de 300 officiers, environ 1 500 sous-officiers, le reste étant composé de militaires du rang, soit environ 119 pompiers pour 100 000 habitants. La moyenne nationale est de 382 pompiers pour 10 000 009 habitants, mais la zone couverte par la BSPP est très petite et permet donc des temps d'interventions courts avec un effectif réduit : on compte 9,2 pompiers par km2 dans la zone BSPP, contre 0,34 en moyenne en France.
+Le budget annuel de fonctionnement était de 323,7 millions d'euros en 2012, dont 78,2 % de soldes (rémunération et cotisations sociales), 10,5 % de matériel, 8,8 % d'investissement immobilier et 2,5 % de loyers et charges. Les contributeurs à ce budget sont les départements (29 %), la ville de Paris (26 %), le ministère de l'Intérieur (24 %) et les autres communes (21 %)[réf. nécessaire].
+La BSPP est régie actuellement par les articles R.3222-13 à R.3222-18 du code de la Défense. Elle remplit approximativement le même rôle que les SDIS dans les autres départements français.
 </t>
         </is>
       </c>
@@ -518,14 +530,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous l'Ancien Régime
-Pendant longtemps, la lutte contre l'incendie a été à la charge des habitants eux-mêmes ou bien des corps non spécialisés ; cette tâche fut donc confiée successivement au guet royal, au guet bourgeois, aux magistrats communaux. Les anciennes ordonnances de police de 1371, 1395 et 1400 imposaient aux propriétaires d'avoir en permanence un muid d'eau près de leur porte, mais ne donnaient aucune indication quant aux dispositions à adopter en cas d'incendie.
+          <t>Sous l'Ancien Régime</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant longtemps, la lutte contre l'incendie a été à la charge des habitants eux-mêmes ou bien des corps non spécialisés ; cette tâche fut donc confiée successivement au guet royal, au guet bourgeois, aux magistrats communaux. Les anciennes ordonnances de police de 1371, 1395 et 1400 imposaient aux propriétaires d'avoir en permanence un muid d'eau près de leur porte, mais ne donnaient aucune indication quant aux dispositions à adopter en cas d'incendie.
 En 1524, le parlement de Paris ordonna que des habitants soient commandés chaque soir par le prévôt des marchands de Paris pour constituer le guet de nuit, que soient constituées des provisions d'eau dans chaque maison, et que des lanternes allumées soient mises aux fenêtres (premier éclairage public à Paris).
 Le 7 mars 1670, une ordonnance de police imposa la présence au feu des corporations du bâtiment.
 Le 31 juillet 1681, nombre de seaux et brocs fut distribués dans Paris et ses faubourgs, et déposés dans les couvents, chez les échevins, et chez les notables. Un dépôt central était situé à l'hôtel de ville, avec des dépôts secondaires indiqués aux habitants. Mais finalement, il n'y avait guère que les membres des communautés religieuses et des corporations du bâtiment aptes à intervenir, auxquels Louis XIV ajouta alors les Gardes suisses et françaises qui devaient « se porter à l'incendie à la première alerte ».
-À cette époque, il y avait alors obligation de maintenir en bon état les puits et puisards, ainsi que tous les moyens de puisage. Cependant, les résultats n'étant pas ceux espérés, en 1699, pour remédier à cette situation, François Dumouriez du Perrier se fit accorder par privilège royal et pour trente ans la construction et la fourniture exclusive des pompes à incendie nouvelles avec boyaux de cuirs[6].
+À cette époque, il y avait alors obligation de maintenir en bon état les puits et puisards, ainsi que tous les moyens de puisage. Cependant, les résultats n'étant pas ceux espérés, en 1699, pour remédier à cette situation, François Dumouriez du Perrier se fit accorder par privilège royal et pour trente ans la construction et la fourniture exclusive des pompes à incendie nouvelles avec boyaux de cuirs.
 En 1715, François Dumouriez du Perrier est nommé par Louis XIV au poste de directeur général des Pompes publiques pour remédier aux incendies, sans que le Public soit tenu de rien payer. Il devient le premier pompier professionnel de France.
-En 1719, 17 pompes publiques sont réparties dans cinq quartiers de Paris, entretenues et manipulées par une quarantaine de gardiens et sous-gardiens[7], les premiers pompiers de Paris. Ils ne sont pas encore professionnels :
+En 1719, 17 pompes publiques sont réparties dans cinq quartiers de Paris, entretenues et manipulées par une quarantaine de gardiens et sous-gardiens, les premiers pompiers de Paris. Ils ne sont pas encore professionnels :
 trois pompes dans le couvent des Augustins, tenues par Duhamel (serrurier), Herbain (potier), Quenet (menuisier), Laisné (cordonnier), Duhamel (menuisier), Monneton (serrurier), Corbonnot (serrurier) et Legrand (cordonnier) ;
 trois pompes dans le couvent des Carmes, tenues par de La Potte (cordonnier), Pelletier (menuisier), Saintbon (menuisier), Pelletier (serrurier), Carel (menuisier), Baumail dit Montauban (cordonnier), Pied, et Jean (relieur) ;
 trois pompes dans le couvent de la Mercy, tenues par Paris (cordonnier), Granger et Granger (cordonniers), Blanvillain (menuisier), Pilon (cordonnier), Vlu (cordonnier), Champion (tapissier) et Fendoré (cordonnier) ;
@@ -533,58 +550,168 @@
 quatre à l’hôtel de ville ;
 une chez François Dumouriez du Perrier, rue Mazarine.
 En 1722, Louis XV fonde la Compagnie des Gardes des Pompes du Roy, toujours sous la direction de Dumouriez.
-Huit brigades sont créées aux Augustins, aux Carmes, à La Mercy, aux Petits Pères, à La Trinité, aux Jésuites, à l'Oratoire, et aux Capucins. Les pompes sont réparties dans 21 dépôts. Chaque brigade est composée de sept hommes : un inspecteur, un brigadier, un sous-brigadier, deux gardes, et deux sous-gardes. Ils ne sont pas encore des professionnels du feu puisqu'ils exercent toujours leur métier de base (cordonniers, menuisiers, etc.) Dumouriez est secondé par son frère, lieutenant. En outre, quatre hommes sont nommés pour servir de Haut le pied (ou Avertisseurs). La première compagnie de pompiers de Paris comportait alors 62 hommes[8].
+Huit brigades sont créées aux Augustins, aux Carmes, à La Mercy, aux Petits Pères, à La Trinité, aux Jésuites, à l'Oratoire, et aux Capucins. Les pompes sont réparties dans 21 dépôts. Chaque brigade est composée de sept hommes : un inspecteur, un brigadier, un sous-brigadier, deux gardes, et deux sous-gardes. Ils ne sont pas encore des professionnels du feu puisqu'ils exercent toujours leur métier de base (cordonniers, menuisiers, etc.) Dumouriez est secondé par son frère, lieutenant. En outre, quatre hommes sont nommés pour servir de Haut le pied (ou Avertisseurs). La première compagnie de pompiers de Paris comportait alors 62 hommes.
 Dumouriez dirige la compagnie jusqu’à sa mort. Son fils lui succède.
-De l'Empire à la Troisième République
-En février 1810, un corps de garde du palais de Saint-Cloud, en surchauffant un poêle, met le feu au salon de la résidence de Napoléon Ier, qui est présent cette nuit-là. Bien que le feu soit rapidement éteint, l'Empereur décide de créer une garde de nuit spéciale à toutes les résidences impériales, garde composée de sapeurs du Génie et transformée le 16 juillet 1810 en compagnie de sapeurs du génie de la Garde impériale[9]. À la suite de l'incendie de l’ambassade d’Autriche, qui cause la mort d'une centaine de convives le 1er juillet 1810, l'Empereur charge le ministre de l'Intérieur et Étienne-Denis Pasquier, préfet de police, de trouver une nouvelle organisation pour remplacer le corps des gardes pompes. La proposition d’une formation militaire est retenue et officialisée par décret impérial du 18 septembre 1811, qui crée le Bataillon de sapeurs-pompiers de Paris. Quatre compagnies sont formées. Une est installée dans une caserne aménagée pour l'occasion dans les bâtiments de l'ancien hôtel de Chavigny rue de la Culture-Sainte-Catherine, actuelle rue de Sévigné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De l'Empire à la Troisième République</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 1810, un corps de garde du palais de Saint-Cloud, en surchauffant un poêle, met le feu au salon de la résidence de Napoléon Ier, qui est présent cette nuit-là. Bien que le feu soit rapidement éteint, l'Empereur décide de créer une garde de nuit spéciale à toutes les résidences impériales, garde composée de sapeurs du Génie et transformée le 16 juillet 1810 en compagnie de sapeurs du génie de la Garde impériale. À la suite de l'incendie de l’ambassade d’Autriche, qui cause la mort d'une centaine de convives le 1er juillet 1810, l'Empereur charge le ministre de l'Intérieur et Étienne-Denis Pasquier, préfet de police, de trouver une nouvelle organisation pour remplacer le corps des gardes pompes. La proposition d’une formation militaire est retenue et officialisée par décret impérial du 18 septembre 1811, qui crée le Bataillon de sapeurs-pompiers de Paris. Quatre compagnies sont formées. Une est installée dans une caserne aménagée pour l'occasion dans les bâtiments de l'ancien hôtel de Chavigny rue de la Culture-Sainte-Catherine, actuelle rue de Sévigné.
 Conséquemment à l'extension de Paris en 1860 aux communes limitrophes au-delà des fortifications, le Bataillon s'agrandit et de nouvelles compagnies sont créées (8e-9e-10e).
-Le Bataillon devient Régiment de sapeurs-pompiers de Paris par décret impérial le 5 décembre 1866[10] tandis que sa zone d'action est étendue à tout le département de la Seine.
+Le Bataillon devient Régiment de sapeurs-pompiers de Paris par décret impérial le 5 décembre 1866 tandis que sa zone d'action est étendue à tout le département de la Seine.
 En 1868, un homme du Régiment sort de l'anonymat et devient une véritable célébrité : le caporal Thibault.
-Première et Seconde guerres mondiales
-Pendant la Première Guerre mondiale, trente pompiers de Paris et deux autopompes sont arrivés à Reims début mars 1915 pour combattre les incendies causés par les bombardements[11],[12].
-Dans la nuit du 5 au 6 juin 1915, à Vauquois, une offensive engage un détachement du Régiment, formant la compagnie spéciale 22/6 dite "Compagnies Z" rattachée au 1er régiment du génie[13]. Celle-ci dispose d'appareils lance-flammes conçus par le capitaine ingénieur Schilt. Chaque appareil est constitué d'un réservoir cylindrique, contenant un liquide composé de 30 % de pétrole et 70 % d'huile légère de houille, relié à une bouteille d'acétylène dissout. Le mélange est enflammé au moyen de grenades incendiaires. L'effet de souffle produit par l'explosion d'un dépôt de munitions allemand, touché par ce mélange, rabat le liquide enflammé sur les lignes françaises. Parmi les victimes, on dénombre des sapeurs-pompiers et des hommes du 3e bataillon du 31e RI, présents dans les tranchées[14].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Première et Seconde guerres mondiales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Première Guerre mondiale, trente pompiers de Paris et deux autopompes sont arrivés à Reims début mars 1915 pour combattre les incendies causés par les bombardements,.
+Dans la nuit du 5 au 6 juin 1915, à Vauquois, une offensive engage un détachement du Régiment, formant la compagnie spéciale 22/6 dite "Compagnies Z" rattachée au 1er régiment du génie. Celle-ci dispose d'appareils lance-flammes conçus par le capitaine ingénieur Schilt. Chaque appareil est constitué d'un réservoir cylindrique, contenant un liquide composé de 30 % de pétrole et 70 % d'huile légère de houille, relié à une bouteille d'acétylène dissout. Le mélange est enflammé au moyen de grenades incendiaires. L'effet de souffle produit par l'explosion d'un dépôt de munitions allemand, touché par ce mélange, rabat le liquide enflammé sur les lignes françaises. Parmi les victimes, on dénombre des sapeurs-pompiers et des hommes du 3e bataillon du 31e RI, présents dans les tranchées.
 En 1939, le plan de mobilisation générale fait passer l'effectif du régiment de 53 officiers, 260 sous-officiers et 1 836 militaires du rang à 171 officiers et 7090 sous-officiers et militaires du rang. Des compagnies sont déployées sur l'ensemble des communes de la Seine. La mission du Régiment dans ces communes se limite dans un premier temps à une mission de défense passive contre les attaques aériennes, les interventions courantes demeurant sous la responsabilité des communes. Les sapeurs-pompiers communaux, mobilisés dans diverses unités militaires, sont placés progressivement en affectation spéciale pour servir dans le cadre de la défense passive au sein de leur corps de sapeurs-pompiers municipal. Rapidement le maintien de l’organisation communale et la présence de sapeurs-pompiers militaire en attente de bombardement montra ses limites. Un décret-loi en date du 22 février 1940 puis la loi no 205 du 5 avril 1943 chargea l’autorité militaire du service de défense et de secours contre l’incendie dans tout le département de la Seine.
 En 1940, si une partie des effectifs continue son service à Paris et dans la Seine, une autre prend part aux combats qui la conduisent jusqu'à la Loire. Le gouvernement décide de démilitariser le régiment afin qu'il puisse continuer à exercer sa mission dans le futur Paris occupé. Tout en assurant sa mission principale, une partie du régiment sous l'impulsion du capitaine Frédéric Curie participe activement à la résistance notamment à partir de 1942 au sein du groupe "sécurité-parisienne". Ce groupe mène de nombreuses actions clandestines de renseignement et de sabotage. Durant la semaine de la Libération de Paris les sections secrètes "sécurité-parisienne" assurent de nombreuses liaisons avec les forces alliées, transportent du matériel et des armes, participent directement à la bataille aux côtés des FFI, déploie le premier drapeau sur l'arc de triomphe sous le feu des troupes allemandes, mènent des actions de nettoyage des tireurs embusqués sur les toits, et assurent la sécurité du défilé du général de Gaulle puis des troupes américaines. Durant les opérations de la Libération de Paris, le régiment déplore quinze morts et trente-huit blessés. Parallèlement à ces combats, le 25 août 1944, un commando de sapeurs-pompiers hisse symboliquement au sommet de la tour Eiffel le drapeau tricolore.
-De 1963 à nos jours
-Rattaché à l'arme de l'infanterie, le régiment est transféré dans l'arme du génie par décret No 65-265 du 2 avril 1965[15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>De 1963 à nos jours</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rattaché à l'arme de l'infanterie, le régiment est transféré dans l'arme du génie par décret No 65-265 du 2 avril 1965.
 La loi du 10 juillet 1964 impose un nouveau découpage administratif en supprimant les départements de la Seine et de Seine-et-Oise, pour ceux de Paris, Seine-saint-Denis, Hauts-de-Seine et Val-de-Marne. La zone d'action du régiment est étendue aux quarante-trois communes du département de Seine-et-Oise intégrées dans les trois nouveaux départements périphériques formant la "Petite Couronne", à partir du 1er janvier 1968.
-Après un accroissement des moyens (en personnel et matériels) du Corps pour assurer la défense de Paris et des communes suburbaines de la Seine, le décret no 67-155 du 28 février 1967 dissout le Régiment et créé la Brigade de sapeurs-pompiers de Paris le 1er mars 1967. Le colonel Casso, qui commandait le Régiment depuis 1963, est nommé par le président de la République, Charles de Gaulle, général de ce qui devient alors la Brigade de sapeurs-pompiers de Paris. Intervenant personnellement dans près d'une centaine d'intervention de secours, il travaille à la modernisation du corps et à son adaptation pour répondre aux besoins de Paris et la petite couronne[16]. Le général Casso laissera une trace profonde dans la Brigade jusqu'à son départ à la retraite en 1970, date à laquelle il fut nommé maire du 17e arrondissement de Paris par le ministre de l'Intérieur, Raymond Marcellin. Il a notamment écrit l'Éthique du Sapeur-Pompier de Paris[17], apprise par les recrues et lue en caserne. L'esplanade située devant l'État-Major de la Brigade à Paris porte son nom[16], tout comme la promotion 2018-2019 du 4e bataillon de l'École spéciale militaire de Saint-Cyr.
+Après un accroissement des moyens (en personnel et matériels) du Corps pour assurer la défense de Paris et des communes suburbaines de la Seine, le décret no 67-155 du 28 février 1967 dissout le Régiment et créé la Brigade de sapeurs-pompiers de Paris le 1er mars 1967. Le colonel Casso, qui commandait le Régiment depuis 1963, est nommé par le président de la République, Charles de Gaulle, général de ce qui devient alors la Brigade de sapeurs-pompiers de Paris. Intervenant personnellement dans près d'une centaine d'intervention de secours, il travaille à la modernisation du corps et à son adaptation pour répondre aux besoins de Paris et la petite couronne. Le général Casso laissera une trace profonde dans la Brigade jusqu'à son départ à la retraite en 1970, date à laquelle il fut nommé maire du 17e arrondissement de Paris par le ministre de l'Intérieur, Raymond Marcellin. Il a notamment écrit l'Éthique du Sapeur-Pompier de Paris, apprise par les recrues et lue en caserne. L'esplanade située devant l'État-Major de la Brigade à Paris porte son nom, tout comme la promotion 2018-2019 du 4e bataillon de l'École spéciale militaire de Saint-Cyr.
 Les années 70 marquent le début de l’ère des centres de secours modernes. En 1973, l’îlot Masséna qui abrite l’état-major du deuxième groupement d’incendie, les services administratifs de la Brigade et la 2e compagnie devient la plus grande caserne de pompiers d’Europe. En matière de secours aux victimes, des progrès considérables sont obtenus à partir de 1967  avec la création de la première ambulance de réanimation moderne dite "AR", réalisée sous l’impulsion des médecins des sapeurs pompiers de Paris. De nombreux progrès sont accomplis dans les années suivantes. Le plan Rouge, qui n’est que la traduction « sécurité civile » de la manœuvre santé des militaires en cas d’afflux massif des blessés, est mis en œuvre par la Brigade en 1978.
 Les années 80 arrivent avec un nouveau lot de changements : police secours est dissous en 1985 et les sapeurs pompiers de Paris deviennent les premiers acteurs de soins d’urgence sur la plaque parisienne.
 Un casque révolutionnaire est créé avec la société Gallet. Les tenues textiles remplacent le cuir en intervention. Une nouvelle génération d’engins polyvalents apparaît : les Premier secours évacuation (PSE) ; assurant aussi bien les missions de lutte contre les incendies, que le secours à victime. De nombreux centres de secours de banlieue sont construits pour remplacer un parc vétuste et mal adapté, hérité de l’après-guerre.
-Au xxie siècle, la suppression de la conscription à la fin des années 1990 accélère le processus de professionnalisation, et l’incorporation de premiers sapeurs-pompiers féminins en 2002. À partir de 2007, La Brigade opère une nouvelle métamorphose qui porte de cinq à six le nombre des groupements opérationnels[18].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Au xxie siècle, la suppression de la conscription à la fin des années 1990 accélère le processus de professionnalisation, et l’incorporation de premiers sapeurs-pompiers féminins en 2002. À partir de 2007, La Brigade opère une nouvelle métamorphose qui porte de cinq à six le nombre des groupements opérationnels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Commandants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des chefs de corps commandant le bataillon de sapeurs-pompiers de Paris (de 1812 à 1866)
-intérim et transition effectués par M. Morisset, suivi par le capitaine-ingénieur Peyre en 1811
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des chefs de corps commandant le bataillon de sapeurs-pompiers de Paris (de 1812 à 1866)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>intérim et transition effectués par M. Morisset, suivi par le capitaine-ingénieur Peyre en 1811
 Chef d'escadron De Lalanne : 1812 - 1813
 Lieutenant-Colonel Annet Jean-Baptiste de Plazanet : 1814 - 1830
 Chef de bataillon Pierre Hyppolyte Amillet : 1830 (septembre à décembre)
@@ -594,9 +721,43 @@
 Chef de bataillon Terchou : 1848 - 1850
 Chef d'escadron d'artillerie de Vives : 1850 - 1851
 Colonel Charles Nicolas Joseph de la Condamine : 1851 - 1862
-Colonel Pierre Marie Adolphe Willerme : 1861 - 1866
-Liste des chefs de corps commandant le régiment de sapeurs pompiers de Paris (de 1866 à 1967)[19]
-Colonel Pierre Marie Adolphe Willerme : 1866 - 1871
+Colonel Pierre Marie Adolphe Willerme : 1861 - 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Commandants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des chefs de corps commandant le régiment de sapeurs pompiers de Paris (de 1866 à 1967)[19]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Colonel Pierre Marie Adolphe Willerme : 1866 - 1871
 Colonel Saint-Martin : 1871 - 1878
 Colonel Victor Colonieu : 1878-1879
 Colonel Paris : 1879 - 1882
@@ -618,9 +779,43 @@
 Colonel Maruelle : 1945 - 1947
 Colonel Maurice Feger : 1947 - 1952
 Colonel Besson : 1952 - 1963
-Colonel Abdon Robert Casso : 1963 - 1er mars 1967
-Liste des officiers généraux commandant la BSPP (de 1967 à aujourd'hui)
-Général de brigade Abdon Robert Casso : 1er mars 1967 - 26 août 1970
+Colonel Abdon Robert Casso : 1963 - 1er mars 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Commandants</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des officiers généraux commandant la BSPP (de 1967 à aujourd'hui)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Général de brigade Abdon Robert Casso : 1er mars 1967 - 26 août 1970
 Général de brigade Perdu : 27 août 1970 - 3 janvier 1973
 Général de brigade Charles Férauge : 04 janvier 1973 - 19 décembre 1976
 Général de brigade Georges Gère : 20 décembre 1976 - 31 décembre 1980
@@ -636,51 +831,123 @@
 Général de brigade Gaëtan Poncelin de Raucourt : 1er août 2013 - 31 juillet 2015 (deviendra général de division en 2016, et général de corps d'armée en 2018)
 Général de brigade puis de division Philippe Boutinaud : 1er août 2015 - 31 août 2017
 Général de brigade puis de division Jean-Claude Gallet : 1er septembre 2017 au 29 novembre 2019
-Général de brigade puis de division Jean-Marie Gontier[20] : 30 novembre 2019[3]- 31 juillet 2022
+Général de brigade puis de division Jean-Marie Gontier : 30 novembre 2019- 31 juillet 2022
 Général de brigade puis de division Joseph Dupré la Tour : à partir du 1er août 2022
 Pendant la période 1866-1967, période où les sapeurs-pompiers de Paris étaient organisés en régiment, l'officier commandant le régiment était un colonel ou un lieutenant-colonel. Le passage en brigade entraîne de facto une évolution de grade pour l'officier commandant la BSPP, qui devient donc un général de brigade. Ainsi, lors du passage de régiment à brigade, le colonel Casso qui en était le commandant se voit promut au grade de général de brigade. En cours de commandement, le général commandant la BSPP peut devenir général de division.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Drapeau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls les régiments et les écoles, ainsi que la brigade de sapeurs-pompiers de Paris, ont droit à un drapeau ou un étendard correspondant à leur appellation.
 C’est en 1793 que la compagnie des gardes pompes reçoit son premier emblème. Elle le conservera jusqu’en 1869.
-Drapeau Second Empire
-Durant le Second Empire, Napoléon III ordonne que les drapeaux portent désormais la marque de l’empereur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Drapeau</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Drapeau Second Empire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant le Second Empire, Napoléon III ordonne que les drapeaux portent désormais la marque de l’empereur.
 Ainsi, l’ensemble des régiments de France reçoit un nouveau drapeau et, le 23 janvier 1869, le régiment se voit remettre le sien.
 Celui-ci porte l’inscription suivante: « l’Empereur Napoléon III au Régiment des Sapeurs-Pompiers de Paris »
 Sur le revers : Valeurs, Dévouement, Discipline, Campagne d’Orient.
 Cette dernière inscription est liée au fait que le régiment a envoyé de forts contingents durant la campagne de Crimée.
 La remise officielle a lieu le 31 juillet sur l’esplanade des Invalides par le maréchal Canrobert, commandant le 1er corps d’armée au Colonel Willermé. Il est accompagné du général commandant la place de Paris et du général chef d’état-major du 1er corps d’armée.
 Avant la remise, le maréchal clame en ces termes : « (…) vous voyez sur ce drapeau inscrit les mots : Valeur-discipline-dévouement. Valeur, c’est-à-dire cette vertu qui vous fait affronter tous les dangers pour la défense du pays et le service de l’empereur. Discipline, ce lien qui unit fraternellement celui qui commande à celui qu’il a sous ses ordres. Dévouement, ce n’est pas moi qui vous l’enseignerai. Ne le prodiguez-vous pas à toute heure de votre vie pour la protection et le salut de vos citoyens ? Allons mes amis, ralliez-vous autour de ce drapeau. Qu’il abrite dans ses plis les nobles sentiments qui vous animent et que votre connaissance unisse sa voix à la mienne au cri de « Vive l’empereur ! »
-Drapeau modèle 1880
-Au cours de la Guerre franco-allemande de 1870, les opérations militaires aboutissent à la défaite et à la capture de l'empereur Napoléon III à Sedan, le 2 septembre 1870. L'opposition parlementaire, surtout républicaine, menée par Léon Gambetta parvient à mettre en place un gouvernement provisoire, dit de la Défense nationale. La République est proclamée le 4 septembre, au balcon de l’hôtel de ville de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Drapeau</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Drapeau modèle 1880</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de la Guerre franco-allemande de 1870, les opérations militaires aboutissent à la défaite et à la capture de l'empereur Napoléon III à Sedan, le 2 septembre 1870. L'opposition parlementaire, surtout républicaine, menée par Léon Gambetta parvient à mettre en place un gouvernement provisoire, dit de la Défense nationale. La République est proclamée le 4 septembre, au balcon de l’hôtel de ville de Paris.
 Avec elle, les régiments doivent une nouvelle fois changer leur drapeau. C’est de cette période que date l’actuel drapeau de la Brigade.
 Le colonel Victor Colonieu, commandant le régiment depuis 1878 adresse le 11 mars 1879 au général commandant la Place de Paris la lettre suivante :
 « Mon général, j’ai l’honneur de vous rendre compte que je viens de recevoir le no 14 de la partie réglementaire du journal militaire officiel contenant la liste des noms de bataille approuvée par le ministre de la Guerre pour être inscrit sur les drapeaux et étendards des Corps de troupe de l’Armée.
@@ -694,8 +961,43 @@
 Le 18 septembre 2005, à la suite du dramatique incendie de l’hôtel de la rue de Provence, le drapeau est décoré de la Médaille d'honneur pour acte de courage et de dévouement échelon or par le ministre de l’Intérieur Nicolas Sarkozy.
 Depuis le 4 mars 2017, le drapeau a été décoré de la Médaille de la sécurité intérieure échelon or (engagement lors des Attentats du 13 novembre 2015 en France) par le président de la République François Hollande.
 Depuis 2019, la Brigade a reçu deux nouvelles Médaille d'honneur pour acte de courage et de dévouement échelon or et une Médaille de la Défense nationale échelon or avec palme, pour son engagement lors de l'incendie de la Cathédrale Notre-Dame de Paris, la tragique explosion rue de Trévise et le terrible incendie rue Erlanger.
-Caractéristiques de l'emblème
-Étamine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Drapeau</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Caractéristiques de l'emblème</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Étamine
 90 cm sur les 2 côtés
 Des couronnes de feuilles de chêne et de laurier sont peintes à l’or fin.
 Inscriptions à l'avers : « République française  –  Sapeurs-Pompiers de Paris »
@@ -707,87 +1009,125 @@
 À chaque extrémité et sur une seule face : une couronne composée d’une guirlande de feuilles de chêne et de laurier brodée à l’or fin, accrochée par son milieu à un bracelet fixé au fer de lance.
 Fer de lance en bronze doré sur un socle en forme de cartouche oblongue
 Avers : « République française »
-Revers : « Sapeurs-Pompiers »
-Décorations
-La cravate du drapeau est décorée de :
-croix de la Légion d'honneur, remise par le président de la République, Émile Loubet, le 14 juillet 1902 au Champ-de-Mars[21] ;
+Revers : « Sapeurs-Pompiers »</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Drapeau</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cravate du drapeau est décorée de :
+croix de la Légion d'honneur, remise par le président de la République, Émile Loubet, le 14 juillet 1902 au Champ-de-Mars ;
   La Médaille d'or de la Défense nationale, avec palme et citation collective à l'ordre des armées, remise en 1er juillet 2019 par Florence Parly, ministre des armées, pour l'engagement des soldats du feu lors de l'incendie de la cathédrale Notre-Dame de Paris ;
 médaille d’honneur pour acte de courage et de dévouement, échelon or, remise le 18 septembre 2005, à la suite du terrible incendie de l'hôtel de la rue de Provence ;
-médaille d'honneur pour acte de courage et de dévouement, échelon or, remise le 28 mars 2019 par le ministre de l'Intérieur, Christophe Castaner, en reconnaissance de l'engagement de la BSPP lors des drames de la rue de Trévise et Erlanger, ainsi qu'en reconnaissance du sacrifice de quatre militaires du corps en un an : le sergent-chef Lassus-David, le caporal Henry, le sergent Cartannaz et le caporal Josselin[22] ;
+médaille d'honneur pour acte de courage et de dévouement, échelon or, remise le 28 mars 2019 par le ministre de l'Intérieur, Christophe Castaner, en reconnaissance de l'engagement de la BSPP lors des drames de la rue de Trévise et Erlanger, ainsi qu'en reconnaissance du sacrifice de quatre militaires du corps en un an : le sergent-chef Lassus-David, le caporal Henry, le sergent Cartannaz et le caporal Josselin ;
 médaille d'honneur pour acte de courage et de dévouement, échelon or, remise le 1er juillet 2019 par le ministre de l'Intérieur, Christophe Castaner, en reconnaissance de l'activité opérationnelle particulièrement exceptionnelle, notamment après l'incendie de la cathédrale Notre-Dame de Paris du 15 avril 2019 ;
-médaille de la sécurité intérieure, échelon or, remise le 4 mars 2017 par le président de la République, François Hollande, sur le parvis de l’hôtel de ville de Paris[21] ;
-La fourragère d'or (nouvelle création de la chancellerie), est une décoration présidentielle matérialisant de façon permanente les actions d'éclat et l'engagement exceptionnel des hommes et femmes de la BSPP au service de la France[23].
-La BSPP est désormais la seule unité titulaire d'autant de médaille d'honneur pour acte de courage et de dévouement attribuées à titre collectif et de la fourragère d'or[24].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+médaille de la sécurité intérieure, échelon or, remise le 4 mars 2017 par le président de la République, François Hollande, sur le parvis de l’hôtel de ville de Paris ;
+La fourragère d'or (nouvelle création de la chancellerie), est une décoration présidentielle matérialisant de façon permanente les actions d'éclat et l'engagement exceptionnel des hommes et femmes de la BSPP au service de la France.
+La BSPP est désormais la seule unité titulaire d'autant de médaille d'honneur pour acte de courage et de dévouement attribuées à titre collectif et de la fourragère d'or.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>2015 : La Brigade reçoit la Médaille de la Ville de Paris échelon vermeil afin de matérialiser la reconnaissance des actions menées par les sapeurs-pompiers lors des tragiques journées du 5-9 janvier.
 2018 : Le Conseil de Paris attribue la citoyenneté d’honneur à la Brigade.
-2019 : Récompensé du Prix Spécial du Jury[25] lors du Prix du Rayonnement français, pour le courage et la bravoure de la Brigade de Sapeurs-Pompiers de Paris lors de l'incendie de Notre-Dame le 15 avril 2019.
+2019 : Récompensé du Prix Spécial du Jury lors du Prix du Rayonnement français, pour le courage et la bravoure de la Brigade de Sapeurs-Pompiers de Paris lors de l'incendie de Notre-Dame le 15 avril 2019.
 La Brigade possède également 5 Citation à l'ordre de l'armée, le plus haut titre de reconnaissance décerné par l'Armée.
-1988 : Pour avoir dépassé les 300.000 interventions annuelles, et l'engagement auprès des Détachement d'intervention catastrophes aéromobile en Italie, Algérie, Mexique, et lors de Accident ferroviaire de la gare de Lyon[26].
-2005 : Pour avoir réalisé 58 sauvetages lors de l'Incendie de l'hôtel Paris-Opéra[27].
-2011 : Pour avoir dépassé les 500.000 interventions annuelles, pour avoir projeté des personnels de santé auprès des médecins de l'hôpital de Bengazi lors de la Première guerre civile libyenne, ainsi que les spécialistes "Sauvetage-déblaiement" et "NRBC" à la suite du Séisme de 2011 de la côte Pacifique du Tōhoku[28].
-2016 : Pour avoir fait face aux attentats terroristes du 5-9 janvier et du 13 novembre[29].
-2019 : Pour avoir combattu l'Incendie de Notre-Dame de Paris[30].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+1988 : Pour avoir dépassé les 300.000 interventions annuelles, et l'engagement auprès des Détachement d'intervention catastrophes aéromobile en Italie, Algérie, Mexique, et lors de Accident ferroviaire de la gare de Lyon.
+2005 : Pour avoir réalisé 58 sauvetages lors de l'Incendie de l'hôtel Paris-Opéra.
+2011 : Pour avoir dépassé les 500.000 interventions annuelles, pour avoir projeté des personnels de santé auprès des médecins de l'hôpital de Bengazi lors de la Première guerre civile libyenne, ainsi que les spécialistes "Sauvetage-déblaiement" et "NRBC" à la suite du Séisme de 2011 de la côte Pacifique du Tōhoku.
+2016 : Pour avoir fait face aux attentats terroristes du 5-9 janvier et du 13 novembre.
+2019 : Pour avoir combattu l'Incendie de Notre-Dame de Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Chant et marche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Au fort de Villeneuve Saint-Georges, lors de leur formation, les recrues entonnent de nombreux chants. 
-Paris nous voilà et Sombre Fumée sont les deux principaux[31].
+Paris nous voilà et Sombre Fumée sont les deux principaux.
 1. couplet
 Paris, nous voilà dans tes rues, si fiers,
 Portés par les chemins de fer,
@@ -857,35 +1197,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">La devise militaire des sapeurs pompiers de Paris est : « Sauver ou périr ». Elle ne doit pas être confondue avec celle des pompiers français : « Courage et dévouement ».
-En 1928, on retrouve la devise “Sauver ou Périr” sur l’insigne de l’Association Amicale des Anciens Militaires du Régiment de Sapeurs- Pompiers de la Ville de Paris, forte de presque trois mille membres en 1930. Dans son rapport en date du 9 décembre 1941, adressé au Ministre Secrétaire d’État à la Guerre, le Colonel Simonin, commandant le Régiment, décrit l’insigne dont il envisage de doter le Régiment dans l’espoir, dit-il : « de ramener chez les cadres et la troupe l’esprit militaire du corps. Cet insigne, qui affectera la forme d’un blason (écu français ancien) portera, en relief, sur fond de flammes, les armes de la Ville de Paris, dont le Régiment assure le service d’incendie depuis le Premier Empire. Ces armes seront surmontées de deux haches, attributs distinctifs du corps et de la devise : “Sapeurs-pompiers — Sauver ou Périr” (ces quatre mots sont liés), devise que chaque officier, sous-officier, caporal ou sapeur doit avoir à cœur de mettre en pratique en toutes circonstances”[32].
-Les sapeurs-pompiers de Paris ont aussi une éthique propre, formulée ainsi[33] :
+En 1928, on retrouve la devise “Sauver ou Périr” sur l’insigne de l’Association Amicale des Anciens Militaires du Régiment de Sapeurs- Pompiers de la Ville de Paris, forte de presque trois mille membres en 1930. Dans son rapport en date du 9 décembre 1941, adressé au Ministre Secrétaire d’État à la Guerre, le Colonel Simonin, commandant le Régiment, décrit l’insigne dont il envisage de doter le Régiment dans l’espoir, dit-il : « de ramener chez les cadres et la troupe l’esprit militaire du corps. Cet insigne, qui affectera la forme d’un blason (écu français ancien) portera, en relief, sur fond de flammes, les armes de la Ville de Paris, dont le Régiment assure le service d’incendie depuis le Premier Empire. Ces armes seront surmontées de deux haches, attributs distinctifs du corps et de la devise : “Sapeurs-pompiers — Sauver ou Périr” (ces quatre mots sont liés), devise que chaque officier, sous-officier, caporal ou sapeur doit avoir à cœur de mettre en pratique en toutes circonstances”.
+Les sapeurs-pompiers de Paris ont aussi une éthique propre, formulée ainsi :
 Je ne veux connaître ni ta philosophie,
 ni ta religion, ni ta tendance politique,
 peu m’importe que tu sois jeune ou vieux,
@@ -902,31 +1244,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Grades</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant une unité militaire, les personnels de la BSPP porte les galons règlementaires de l'armée de Terre.
 Une recrue porte le nom de "sapeur", car la Brigade fait partie du Génie.
@@ -935,36 +1279,38 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Organisation opérationnelle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La BSPP est organisée en six groupements, dont trois groupements d'incendie et de secours (GIS), un groupement de formation, d'instruction et de secours (GFIS), un groupement d'appui et de soutien (GAS) et un groupement des soutiens et de secours (GSS). Elle comprend 71 centres d'incendie et de secours, 3 centres de secours NRBC et deux centres de secours nautiques. Chaque groupement est commandé par un officier supérieur du grade de colonel ou lieutenant-colonel. En voici la description[34]:
-premier groupement d'incendie : Nord-Est de Paris et Seine-Saint-Denis (le poste de commandement est implanté à Montmartre). Ce groupement comptait 1 808 sapeurs-pompiers en 2019, dont 46 officiers, 292 sous-officiers et 1 470 militaires du rang[35].
-deuxième groupement d'incendie : Sud-Est de Paris et Val-de-Marne (PC Masséna, XIIIe arrondissement). Ce groupement comptait 1 600 sapeurs-pompiers en 2019[36].
-troisième groupement d'incendie : Ouest de Paris et Hauts-de-Seine (PC Courbevoie-La Défense). Ce groupement compte 1 802 sapeurs-pompiers en 2019, dont 40 officiers, 308 sous-officiers et 1 454 militaires du rang[37].
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>La BSPP est organisée en six groupements, dont trois groupements d'incendie et de secours (GIS), un groupement de formation, d'instruction et de secours (GFIS), un groupement d'appui et de soutien (GAS) et un groupement des soutiens et de secours (GSS). Elle comprend 71 centres d'incendie et de secours, 3 centres de secours NRBC et deux centres de secours nautiques. Chaque groupement est commandé par un officier supérieur du grade de colonel ou lieutenant-colonel. En voici la description:
+premier groupement d'incendie : Nord-Est de Paris et Seine-Saint-Denis (le poste de commandement est implanté à Montmartre). Ce groupement comptait 1 808 sapeurs-pompiers en 2019, dont 46 officiers, 292 sous-officiers et 1 470 militaires du rang.
+deuxième groupement d'incendie : Sud-Est de Paris et Val-de-Marne (PC Masséna, XIIIe arrondissement). Ce groupement comptait 1 600 sapeurs-pompiers en 2019.
+troisième groupement d'incendie : Ouest de Paris et Hauts-de-Seine (PC Courbevoie-La Défense). Ce groupement compte 1 802 sapeurs-pompiers en 2019, dont 40 officiers, 308 sous-officiers et 1 454 militaires du rang.
 Chaque groupement d'incendie est composé de huit compagnies d'incendie, d'une compagnie de commandement et de logistique et d'un service médical, chaque compagnie comprenant entre 2 et 4 centres de secours. Les compagnies sont dirigées par un officier du grade de capitaine, et chaque centre de secours est dirigé par un sous-officier du grade d'adjudant-chef ou adjudant.
 Outre donc les trois groupements d'incendies et de secours, la "brigade" possède trois autres groupements:
 Le GAS : Groupement Des Appuis et de Secours a été créé le 28 juin 2011, fort de près de 950 hommes et femmes il comprend l'ensemble des capacités d'interventions spécialisées de la Brigade. Constitué d'un état-major et de 8 compagnies, il a pour missions principales d'assurer :
@@ -978,15 +1324,49 @@
 La BSPP assure également, par convention, la protection de sites stratégiques extérieurs à son secteur de compétence territoriale. Il s'agit de compagnies d'incendie spécialisées. Chacune de ces unités élémentaires spécialisées (UES) est commandée par un capitaine :
 Centre spatial guyanais de Kourou (Guyane) : UES Kourou (création 1969);
 Délégation générale pour l'Armement - Essais de missiles - Site Landes (DGA EM / Site Landes) de Biscarrosse : UES Biscarrosse-36e compagnie (création 1966). La 36e compagnie présente notamment la particularité d'intervenir à l'extérieur du site au profit du SDIS 40 (Protocole d'assistance mutuelle DGA/BSPP/SDIS40). Polyvalente, cette compagnie d'incendie, en plus des compétences traditionnelles propres aux missions du sapeur-pompier de Paris, dispose de savoir-faire dans les domaines suivants : feux de forêts, tronçonnage, interventions chimiques, interventions radiologiques, interventions subaquatiques, dépollution et conduite tout-terrain.
-Par ailleurs, étant donné leur statut militaire, des pompiers de la BSPP peuvent être désignés pour des opérations extérieures : c'est notamment le cas au titre de la FINUL au Liban[38].
+Par ailleurs, étant donné leur statut militaire, des pompiers de la BSPP peuvent être désignés pour des opérations extérieures : c'est notamment le cas au titre de la FINUL au Liban.
 Le QG de la BSPP est implanté dans l'enceinte de la caserne Champerret à Paris dans le XVIIe arrondissement. En son sein, en plus du centre de secours de Champerret, on y trouve l'État-Major de la BSPP, le centre opérationnel et un certain nombre de services administratifs (ressources humaines, prévisions opérationnelles, etc).
-Le centre opérationnel de la BSPP est décliné en plusieurs niveaux[39].
+Le centre opérationnel de la BSPP est décliné en plusieurs niveaux.
 On y trouve :
 le centre de traitement de l'alerte (CTA), effectuant la réception des appels au 18/112. Depuis 2016, il regroupe en un même endroit avec les appels 18/112 les appels au 17 à Paris et les trois départements limitrophes (92-93-94). Ce regroupement permet une mutualisation des moyens, et une amélioration de la réponse opérationnelle. Ainsi, la coordination est plus efficace, notamment en cas de crise, les deux services (police / pompiers) étant régulés au même endroit. Pour faciliter la réponse lors de la prise d'appel, le CTA s'organise en deux niveaux de réponse. Un premier niveau qui fait le tri et doit classifier le type de demande (très urgent, urgent, non urgent, erreur de numéro, appel ne concernant pas les pompiers ou la police), et le transfère ensuite au second niveau si besoin, qui se concentrera sur le traitement de la demande et sera géré soit par un opérateur police soit un opérateur pompier selon l'intervention.
 une coordination médicale, sous la responsabilité d'un médecin régulateur. Cette coordination travaille en lien avec les opérateurs du CTA selon l'urgence de l'appel, mais son rôle premier est d'effectuer la régulation des bilans des équipes de secours envoyés en réponse (équipes médicales de la BSPP, équipes de prompt secours de la BSPP ou des associations de sécurité civile), lors d'un appel au CTA. Lors de cette régulation, effectuée par un médecin, un infirmier ou un opérateur pompier, selon la nature de l'urgence, il est décidé de l'orientation de la victime prise en charge par les équipes (orientations possibles: pas de nécessité d'être évacuée en milieu hospitalier, évacuation en milieu hospitalier via l'équipe de prompt secours, envoi d'une équipe médicale en renfort sur l'intervention). Enfin, cette coordination fait le lien et la communication avec les centres de réception et de régulation des appels (CRRA) des 4 SAMU présents sur le secteur (SAMU 75, SAMU 92, SAMU 93, SAMU 94), mais aussi avec les permanences de soins et les établissements de santé.
-l'État-Major opérationnel, qui organise la réponse lors de situations importantes, avec plusieurs postures de montée en puissance (immédiate, renforcée et crise). En effet, le centre opérationnel se transforme en poste de commandement en cas de situations critiques sur le secteur (incendies, accidents avec un nombre important de victimes, attentats, interventions à risques ou avec une évolution potentiellement négative, etc) et permet un suivi opérationnel de ces interventions.
-Casernes par groupement et par compagnie
-Voici la liste des centres de secours, classés par groupement et par compagnie. Pour chaque compagnie, le poste de commandement de compagnie (PC) est en gras. L'état-major de groupement est suivi d’un astérisque. 
+l'État-Major opérationnel, qui organise la réponse lors de situations importantes, avec plusieurs postures de montée en puissance (immédiate, renforcée et crise). En effet, le centre opérationnel se transforme en poste de commandement en cas de situations critiques sur le secteur (incendies, accidents avec un nombre important de victimes, attentats, interventions à risques ou avec une évolution potentiellement négative, etc) et permet un suivi opérationnel de ces interventions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Organisation opérationnelle</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Casernes par groupement et par compagnie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici la liste des centres de secours, classés par groupement et par compagnie. Pour chaque compagnie, le poste de commandement de compagnie (PC) est en gras. L'état-major de groupement est suivi d’un astérisque. 
 			Caserne de Colombes.
 			CS La Monnaie.
 			Caserne Nativité, place Lachambeaudie dans le 12e arr.
@@ -994,38 +1374,40 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Sélection et instruction</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le personnel d'intervention (militaires du rang), il s'agit d'un engagement initial de cinq ans ou d'un volontariat de l'armée de terre (VDAT, à ne pas confondre avec les pompiers civils « volontaires ») de un an renouvelable. Il faut être de nationalité française, âgé entre 18 et 25 ans, avoir un casier judiciaire vierge, être titulaire au minimum d'un diplôme national du brevet et posséder le permis de conduire. La sélection comporte trois jours de tests sportifs, tests psychomoteurs, entretien de motivation ainsi qu'une visite médicale.
 L'instruction se fait au Groupement de formation, d'instruction et de secours (GFIS), au fort de Villeneuve-Saint-Georges. La première période se déroule sur deux mois, avec la formation en secourisme (PSE1 et PSE2 + modules spécifiques), et la formation militaire de base (hiérarchie militaire, marcher au pas, le tir, etc).
 Puis, le sapeur fait un stage d'observation d'une semaine en compagnie d'incendie où il assure des interventions de secours à victime (VSAV) et des opérations diverses, affectés aux autres véhicules de la garde en tant qu'observateur. Il profite de cette phase pour se perfectionner et préparer la suite de sa formation.
 Le sapeur revient au Groupement formation instruction pour compléter sa formation, de nouveau pendant deux mois, qui seront consacrés aux manœuvres incendies, sauvetages. L'évaluation de la formation se fait sous forme de contrôle continu, et non sur une semaine d'évaluation avec obtention de l'ACIS comme précédemment (jusque 2020). Il retourne ensuite dans sa compagnie d'affectation et peut alors participer à tous les types d'interventions cela pendant 2 mois afin de recevoir le certificat d'admission en centre d'incendie et de secours.
 Depuis mars 2005, la brigade est dotée d'une section de jeunes sapeurs pompiers. Cette formation dure trois ans. Elle est ouverte aux jeunes habitants de Paris et de sa petite couronne  (75, 92, 93, 94) ayant 14 ans minimum et 16 ans maximum au jour de l'incorporation. Un bon niveau sportif est requis. Le brevet de JSP sanctionne cette formation. Au programme de l'instruction il y a du sport, des manœuvres incendie, du secourisme, de l'instruction civique et de l'instruction militaire. La formation est composée de 60 samedis après-midi sur deux ans (soit 30 par an). Pour faire acte de candidature, on peut se rendre sur le site du BSPP, rubrique « cadets de la BSPP ».
-En 2005, la BSPP a réalisé 1 171 interventions par jour[40] :
+En 2005, la BSPP a réalisé 1 171 interventions par jour :
 1er groupement d'incendie : 159 136 interventions dont 10 289 incendies en 2005, en comparaison 179701 interventions dont 6360 incendies en 2017;
 2e groupement d'incendie : 128 419 interventions dont 5 532 incendies en 2005, en comparaison 131224 interventions dont 4777 incendies en 2017 ;
 3e groupement d'incendie : 139 948 interventions dont 4 838 incendies en 2005, en comparaison 142667 interventions dont 3661 incendies en 2017.
@@ -1042,31 +1424,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Déroulement d'une journée type en centre de secours</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré le fait que la journée type d'un sapeur-pompier est bercé par les interventions diverses et variées, le déroulement de la garde est toujours le même, pour tous les militaires de chaque centre de secours.
 La garde commence officiellement à 7 h 45 précise, par le rassemblement des troupes. Néanmoins, les sapeurs-pompiers doivent déjà être présents dans les murs de la caserne à partir de 6 h 45, pour pouvoir remplacer au besoin leurs collègues en fin de garde, si des interventions se présentent, leur évitant ainsi de finir la garde en retard, ce qui pourrait leur faire rater leur train de retour. En effet, les militaires de la BSPP viennent en grande majorité (environ 80%) de la province, et passent donc une bonne partie de leur temps libre dans les transports pour rentrer chez eux. De la même manière, pour pouvoir être à la caserne à l'heure, la plupart des pompiers arrivent la veille au soir.
@@ -1085,31 +1469,33 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Déroulement d'une intervention</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Quel que soit le moment de la journée, en cas d'intervention le sapeur doit abandonner la tâche qu'il occupait et se rendre le plus rapidement possible à son véhicule.
 Lorsqu'un appel tombe au Centre opérationnel, basé à Champerret, l'opérateur pompiers, en coordination au besoin avec ses supérieurs hiérarchiques et avec la coordination médicale, décide de l'envoi d'un ou plusieurs véhicules en intervention. Pour ce faire, il envoie un ordre de départ à la ou les casernes concernées, précisant l'adresse, le type d'interventions, et toute information pertinente pour la bonne marche générale des opérations.
@@ -1141,129 +1527,140 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Systèmes embarqués</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antarès
-En 2009 la BSPP a fait migrer son système de communication, jusque-là analogique vers le système numérique Antarès. Depuis cette date les véhicules disposent d'une petite antenne-relais de couleur rouge ou blanche montée généralement sur la cabine du véhicule. Ce système permet une communication plus fluide[41], y compris avec les autres échelons dépendant de la DGSCGC.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Antarès</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009 la BSPP a fait migrer son système de communication, jusque-là analogique vers le système numérique Antarès. Depuis cette date les véhicules disposent d'une petite antenne-relais de couleur rouge ou blanche montée généralement sur la cabine du véhicule. Ce système permet une communication plus fluide, y compris avec les autres échelons dépendant de la DGSCGC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Jumelages</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le 13 juillet 2002, la brigade de sapeurs-pompiers de Paris est jumelée avec le New York City Fire Department (FDNY)[42],[43].
-Depuis 2001, la brigade est jumelée avec la quatrième compagnie de pompiers de Santiago du Chili, « Pompe France »[44].
-La brigade est également jumelée avec les sapeurs-pompiers des villes de Berlin, Pékin et Genève[45].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 13 juillet 2002, la brigade de sapeurs-pompiers de Paris est jumelée avec le New York City Fire Department (FDNY),.
+Depuis 2001, la brigade est jumelée avec la quatrième compagnie de pompiers de Santiago du Chili, « Pompe France ».
+La brigade est également jumelée avec les sapeurs-pompiers des villes de Berlin, Pékin et Genève.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le grand public, la Brigade reste étroitement liée aux défilés du 14 juillet, avec la présence de sapeurs-pompiers défilant sur l'avenue des Champs-Élysées pendant le défilé à pied et en véhicule lors de la partie motorisée. Par ailleurs les pompiers de Paris sont célèbres[46] en Île-de-France pour leurs bals des pompiers organisés généralement le 13 juillet au soir.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le grand public, la Brigade reste étroitement liée aux défilés du 14 juillet, avec la présence de sapeurs-pompiers défilant sur l'avenue des Champs-Élysées pendant le défilé à pied et en véhicule lors de la partie motorisée. Par ailleurs les pompiers de Paris sont célèbres en Île-de-France pour leurs bals des pompiers organisés généralement le 13 juillet au soir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigade_de_sapeurs-pompiers_de_Paris</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Morts en intervention</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste non exhaustive des militaires de la Brigade morts en intervention depuis 1968[47].
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive des militaires de la Brigade morts en intervention depuis 1968.
 Ces derniers font l'objet d'un rituel hebdomadaire dans toutes les casernes : il s'agit de l'Appel des morts au feu.
 </t>
         </is>
